--- a/LogTool/docs/log 테이블 정의.xlsx
+++ b/LogTool/docs/log 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\LogTool\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FD032A-4241-42E0-89C0-C5D9B8496E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F047599D-A53E-471A-8ACE-9157401DBEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23D8E506-1E96-4E16-8EB2-520849076C29}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23D8E506-1E96-4E16-8EB2-520849076C29}"/>
   </bookViews>
   <sheets>
     <sheet name="DW log 테이블 정의" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="126">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,14 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_log_(오늘날짜 ex)20220323)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000 로그 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uruk_game_character_creation_log_(오늘날짜 ex)20220323)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,6 +327,218 @@
   </si>
   <si>
     <t>uruk_game_character_delete_log_(오늘날짜 ex)20220323)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uruk_game_character_money_log_(오늘날짜 ex)20220323)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_money_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_money_item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_money_item_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_money_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_money_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_log_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 로그 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화로 구매한 혹은 판매한 아이템 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입 (경매:1, 아이템 업그레이드:2, 배 업그레이드:3, 수리: 4, 상점5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 사용 타입(1:판매, 2:구매/사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 사용한/얻은 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 로그 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uruk_game_character_auction_log_(오늘날짜 ex)20220323)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction_log_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_auction_item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_auction_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_auction_profit_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_auction_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 참여한 물고기 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨에 따라 이득본 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 1마리당 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매의 물고기 등급 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uruk_game_character_fishing_log_오늘날짜 ex)20220323)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 로그 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_log_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_catch_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_catch_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시로 잡은 아이템 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입(인벤토리 타입과 같음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uruk_game_character_repair_log_(오늘날짜 ex)20220323)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 로그 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_log_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_repair_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_repair_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_repair_durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_repair_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 코드 (0은 캐릭터 수리 ex) 피로도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 내구도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 * 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 로그 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uruk_game_character_upgrade_log_(오늘날짜 ex)20220323)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_log_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_upgrade_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_upgrade_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_upgrade_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_upgrade_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 타입 (1: 채비, 2: 낚시배(보로롱24)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3EB989-DE02-4BC3-8379-51E8B5CCB289}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1267,7 +1471,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1564,7 +1768,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1861,7 +2065,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2165,16 +2369,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB636427-7694-40A8-9DEE-B78030DA9E66}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -2210,7 +2414,7 @@
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2219,18 +2423,18 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -2258,7 +2462,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2275,105 +2479,1693 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>200</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>64</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>64</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>50</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>50</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>200</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>32</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>32</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>64</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>50</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>64</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>57</v>
+      </c>
+      <c r="H97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>50</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>50</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>200</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>32</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>32</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>64</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LogTool/docs/log 테이블 정의.xlsx
+++ b/LogTool/docs/log 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\LogTool\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F047599D-A53E-471A-8ACE-9157401DBEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F1EDE-805D-4F00-8A7A-A32ABF29838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23D8E506-1E96-4E16-8EB2-520849076C29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{23D8E506-1E96-4E16-8EB2-520849076C29}"/>
   </bookViews>
   <sheets>
     <sheet name="DW log 테이블 정의" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="139">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,58 @@
   </si>
   <si>
     <t>업그레이드 타입 (1: 채비, 2: 낚시배(보로롱24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uruk_game_character_shop_buy_log_(오늘날짜 ex)20220323)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 구매 로그 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uruk_game_character_shop_sell_log_(오늘날짜 ex)20220323)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_shop_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_shop_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_shop_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_shop_price_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매할 상품 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매할 상품 개수 * 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_log_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_log_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2369,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB636427-7694-40A8-9DEE-B78030DA9E66}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4129,7 +4181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>54</v>
       </c>
@@ -4146,7 +4198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>20</v>
       </c>
@@ -4160,6 +4212,712 @@
         <v>23</v>
       </c>
       <c r="H114" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>50</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>46</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>50</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>64</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>57</v>
+      </c>
+      <c r="H120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>50</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>50</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>200</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133">
+        <v>32</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>32</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>64</v>
+      </c>
+      <c r="E137" t="s">
+        <v>23</v>
+      </c>
+      <c r="H137" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="H140" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>50</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>50</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>64</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" t="s">
+        <v>57</v>
+      </c>
+      <c r="H143" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>48</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>50</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>50</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155">
+        <v>200</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156">
+        <v>32</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <v>32</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>64</v>
+      </c>
+      <c r="E160" t="s">
+        <v>23</v>
+      </c>
+      <c r="H160" t="s">
         <v>34</v>
       </c>
     </row>

--- a/LogTool/docs/log 테이블 정의.xlsx
+++ b/LogTool/docs/log 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\LogTool\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F1EDE-805D-4F00-8A7A-A32ABF29838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C74CC97-6763-442B-B96E-25D2B46A3F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{23D8E506-1E96-4E16-8EB2-520849076C29}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23D8E506-1E96-4E16-8EB2-520849076C29}"/>
   </bookViews>
   <sheets>
     <sheet name="DW log 테이블 정의" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="145">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +591,27 @@
   </si>
   <si>
     <t>sell_log_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UQ</t>
+  </si>
+  <si>
+    <t>UQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3EB989-DE02-4BC3-8379-51E8B5CCB289}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:H36"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1079,6 +1100,9 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
@@ -1127,6 +1151,9 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
       <c r="H7" t="s">
         <v>30</v>
       </c>
@@ -1199,57 +1226,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1260,78 +1287,84 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1343,272 +1376,275 @@
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
         <v>64</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
+      <c r="F31" t="s">
+        <v>143</v>
+      </c>
       <c r="H31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>25</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H35" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>141</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38">
-        <v>50</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" t="s">
-        <v>28</v>
+      <c r="A38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
       </c>
-      <c r="G39" t="s">
-        <v>57</v>
+      <c r="F39" t="s">
+        <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1619,13 +1655,16 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
+      <c r="F40" t="s">
+        <v>143</v>
+      </c>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1637,292 +1676,295 @@
         <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>143</v>
       </c>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3" t="s">
-        <v>66</v>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>141</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57">
-        <v>50</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58">
-        <v>64</v>
-      </c>
-      <c r="E58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" t="s">
-        <v>56</v>
+      <c r="A58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
       </c>
       <c r="H59" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -1933,483 +1975,600 @@
       <c r="E60" t="s">
         <v>8</v>
       </c>
+      <c r="F60" t="s">
+        <v>143</v>
+      </c>
       <c r="H60" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>57</v>
       </c>
       <c r="H62" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="H63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>143</v>
       </c>
       <c r="H65" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="H70" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H71" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>32</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="3" t="s">
-        <v>68</v>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>141</v>
       </c>
       <c r="H76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77">
-        <v>64</v>
-      </c>
-      <c r="E77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78">
-        <v>50</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" t="s">
-        <v>58</v>
+      <c r="A78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
       </c>
       <c r="H79" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>50</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
+      <c r="F80" t="s">
+        <v>143</v>
+      </c>
       <c r="H80" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>50</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
       <c r="H81" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>64</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>57</v>
       </c>
       <c r="H82" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H84" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
+      <c r="F85" t="s">
+        <v>143</v>
+      </c>
       <c r="H85" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
       <c r="H86" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
       </c>
       <c r="H87" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>200</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>32</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>32</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>20</v>
       </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90">
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
         <v>64</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E95" t="s">
         <v>23</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H95" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>141</v>
+      </c>
+      <c r="H96" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2421,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB636427-7694-40A8-9DEE-B78030DA9E66}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2508,6 +2667,9 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
@@ -2593,6 +2755,9 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
       <c r="H9" t="s">
         <v>60</v>
       </c>
@@ -2831,57 +2996,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -2892,50 +3057,53 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="G30" t="s">
-        <v>57</v>
-      </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
+      <c r="G31" t="s">
+        <v>57</v>
+      </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -2947,74 +3115,77 @@
         <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="G34">
-        <v>0</v>
+      <c r="F34" t="s">
+        <v>143</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -3022,13 +3193,16 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -3037,12 +3211,12 @@
         <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -3051,12 +3225,12 @@
         <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -3065,12 +3239,12 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -3079,46 +3253,43 @@
         <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -3130,29 +3301,29 @@
         <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -3164,114 +3335,114 @@
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>20</v>
       </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47">
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
         <v>64</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>23</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51">
-        <v>50</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
       <c r="H52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
-      <c r="G53" t="s">
-        <v>57</v>
+      <c r="F53" t="s">
+        <v>143</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -3283,60 +3454,66 @@
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
+      <c r="G55" t="s">
+        <v>57</v>
+      </c>
       <c r="H55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>21</v>
@@ -3344,13 +3521,16 @@
       <c r="E58" t="s">
         <v>8</v>
       </c>
+      <c r="F58" t="s">
+        <v>143</v>
+      </c>
       <c r="H58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -3362,26 +3542,26 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -3389,13 +3569,16 @@
       <c r="E61" t="s">
         <v>8</v>
       </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
       <c r="H61" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -3404,199 +3587,190 @@
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
       </c>
       <c r="D65">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>20</v>
       </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68">
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
         <v>64</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>23</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H70" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>141</v>
       </c>
       <c r="H71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72">
-        <v>50</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73">
-        <v>50</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" t="s">
-        <v>28</v>
+      <c r="A73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
       </c>
-      <c r="G74" t="s">
-        <v>57</v>
+      <c r="F74" t="s">
+        <v>9</v>
       </c>
       <c r="H74" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -3607,13 +3781,16 @@
       <c r="E75" t="s">
         <v>8</v>
       </c>
+      <c r="F75" t="s">
+        <v>143</v>
+      </c>
       <c r="H75" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -3625,74 +3802,83 @@
         <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>64</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
       </c>
+      <c r="G77" t="s">
+        <v>57</v>
+      </c>
       <c r="H77" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>50</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
       <c r="H78" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>50</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
-      <c r="G80">
-        <v>0</v>
+      <c r="F80" t="s">
+        <v>143</v>
       </c>
       <c r="H80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -3700,27 +3886,30 @@
       <c r="E81" t="s">
         <v>8</v>
       </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
       <c r="H81" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
       <c r="H82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -3728,13 +3917,16 @@
       <c r="E83" t="s">
         <v>8</v>
       </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
       <c r="H83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -3743,12 +3935,12 @@
         <v>8</v>
       </c>
       <c r="H84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -3757,309 +3949,312 @@
         <v>8</v>
       </c>
       <c r="H85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>17</v>
       </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86">
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
         <v>200</v>
       </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>18</v>
       </c>
-      <c r="C87" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87">
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
         <v>32</v>
       </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>19</v>
       </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88">
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91">
         <v>32</v>
       </c>
-      <c r="E88" t="s">
-        <v>8</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>15</v>
       </c>
-      <c r="C89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89">
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
         <v>3</v>
       </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>54</v>
       </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90">
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93">
         <v>3</v>
       </c>
-      <c r="E90" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>20</v>
       </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91">
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
         <v>64</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E94" t="s">
         <v>23</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H94" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="E95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>141</v>
+      </c>
+      <c r="H95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="3" t="s">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
         <v>117</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C98" t="s">
         <v>21</v>
       </c>
-      <c r="E94" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
         <v>9</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H98" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
         <v>13</v>
       </c>
-      <c r="C95" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95">
-        <v>50</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>50</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>143</v>
+      </c>
+      <c r="H99" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
         <v>46</v>
       </c>
-      <c r="C96" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96">
-        <v>50</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>50</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>47</v>
       </c>
-      <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97">
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101">
         <v>64</v>
       </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
         <v>57</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H101" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
         <v>48</v>
       </c>
-      <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98">
-        <v>50</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>50</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
         <v>22</v>
       </c>
-      <c r="C99" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99">
-        <v>50</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>50</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
         <v>49</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C104" t="s">
         <v>21</v>
       </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>143</v>
+      </c>
+      <c r="H104" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>51</v>
-      </c>
-      <c r="C102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>52</v>
-      </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>53</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="H104" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -4067,27 +4262,30 @@
       <c r="E105" t="s">
         <v>8</v>
       </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
       <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
       </c>
       <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -4095,13 +4293,16 @@
       <c r="E107" t="s">
         <v>8</v>
       </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
       <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -4110,323 +4311,326 @@
         <v>8</v>
       </c>
       <c r="H108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109">
-        <v>200</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110">
-        <v>32</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111">
-        <v>32</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="H111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
       </c>
       <c r="H113" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
       </c>
       <c r="D114">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E114" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H114" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>32</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="3" t="s">
-        <v>127</v>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
       </c>
-      <c r="F117" t="s">
-        <v>9</v>
-      </c>
       <c r="H117" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
       </c>
       <c r="D118">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H118" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>141</v>
       </c>
       <c r="H119" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>47</v>
-      </c>
-      <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120">
-        <v>64</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" t="s">
-        <v>57</v>
-      </c>
-      <c r="H120" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>48</v>
-      </c>
-      <c r="C121" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121">
-        <v>50</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="H121" t="s">
-        <v>58</v>
+      <c r="A121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
       </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
       <c r="H122" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>50</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
       </c>
+      <c r="F123" t="s">
+        <v>143</v>
+      </c>
       <c r="H123" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>50</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
       </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
       <c r="H124" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>64</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
       </c>
+      <c r="G125" t="s">
+        <v>57</v>
+      </c>
       <c r="H125" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D126">
+        <v>50</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
       </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
       <c r="H126" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>50</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
       </c>
       <c r="H127" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
       </c>
+      <c r="F128" t="s">
+        <v>143</v>
+      </c>
       <c r="H128" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
@@ -4434,27 +4638,30 @@
       <c r="E129" t="s">
         <v>8</v>
       </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
       <c r="H129" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
       </c>
       <c r="H130" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -4462,234 +4669,219 @@
       <c r="E131" t="s">
         <v>8</v>
       </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
       <c r="H131" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>130</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>131</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>132</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
         <v>17</v>
       </c>
-      <c r="C132" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132">
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137">
         <v>200</v>
       </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
         <v>18</v>
       </c>
-      <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133">
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138">
         <v>32</v>
       </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
         <v>19</v>
       </c>
-      <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134">
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
         <v>32</v>
       </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
         <v>15</v>
       </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135">
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
         <v>3</v>
       </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
         <v>54</v>
       </c>
-      <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136">
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141">
         <v>3</v>
       </c>
-      <c r="E136" t="s">
-        <v>8</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
         <v>20</v>
       </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137">
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142">
         <v>64</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E142" t="s">
         <v>23</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H142" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>139</v>
+      </c>
+      <c r="C143" t="s">
+        <v>140</v>
+      </c>
+      <c r="E143" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>141</v>
+      </c>
+      <c r="H143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="3" t="s">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
         <v>138</v>
-      </c>
-      <c r="C140" t="s">
-        <v>21</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>9</v>
-      </c>
-      <c r="H140" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141">
-        <v>50</v>
-      </c>
-      <c r="E141" t="s">
-        <v>8</v>
-      </c>
-      <c r="H141" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>46</v>
-      </c>
-      <c r="C142" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142">
-        <v>50</v>
-      </c>
-      <c r="E142" t="s">
-        <v>8</v>
-      </c>
-      <c r="H142" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>47</v>
-      </c>
-      <c r="C143" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143">
-        <v>64</v>
-      </c>
-      <c r="E143" t="s">
-        <v>8</v>
-      </c>
-      <c r="G143" t="s">
-        <v>57</v>
-      </c>
-      <c r="H143" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>48</v>
-      </c>
-      <c r="C144" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144">
-        <v>50</v>
-      </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
-      <c r="H144" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B145" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145">
-        <v>50</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="H145" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
-        <v>49</v>
       </c>
       <c r="C146" t="s">
         <v>21</v>
@@ -4697,103 +4889,124 @@
       <c r="E146" t="s">
         <v>8</v>
       </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
       <c r="H146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
+        <v>143</v>
+      </c>
+      <c r="H147" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>50</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>64</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" t="s">
+        <v>57</v>
+      </c>
+      <c r="H149" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>50</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>50</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
+        <v>143</v>
+      </c>
+      <c r="H152" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
-        <v>50</v>
-      </c>
-      <c r="C147" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" t="s">
-        <v>8</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
-        <v>51</v>
-      </c>
-      <c r="C148" t="s">
-        <v>21</v>
-      </c>
-      <c r="E148" t="s">
-        <v>8</v>
-      </c>
-      <c r="H148" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
-        <v>52</v>
-      </c>
-      <c r="C149" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B150" t="s">
-        <v>53</v>
-      </c>
-      <c r="C150" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" t="s">
-        <v>8</v>
-      </c>
-      <c r="H150" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B151" t="s">
-        <v>129</v>
-      </c>
-      <c r="C151" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B152" t="s">
-        <v>130</v>
-      </c>
-      <c r="C152" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="H152" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -4801,124 +5014,231 @@
       <c r="E153" t="s">
         <v>8</v>
       </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
       <c r="H153" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>51</v>
+      </c>
+      <c r="C154" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>52</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>129</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>130</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>131</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B154" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
         <v>132</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C160" t="s">
         <v>7</v>
       </c>
-      <c r="E154" t="s">
-        <v>8</v>
-      </c>
-      <c r="H154" t="s">
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B155" t="s">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
         <v>17</v>
       </c>
-      <c r="C155" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155">
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161">
         <v>200</v>
       </c>
-      <c r="E155" t="s">
-        <v>8</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B156" t="s">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
         <v>18</v>
       </c>
-      <c r="C156" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156">
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162">
         <v>32</v>
       </c>
-      <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="H156" t="s">
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B157" t="s">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
         <v>19</v>
       </c>
-      <c r="C157" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157">
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163">
         <v>32</v>
       </c>
-      <c r="E157" t="s">
-        <v>8</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B158" t="s">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
         <v>15</v>
       </c>
-      <c r="C158" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158">
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164">
         <v>3</v>
       </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B159" t="s">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
         <v>54</v>
       </c>
-      <c r="C159" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159">
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165">
         <v>3</v>
       </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
-      <c r="H159" t="s">
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B160" t="s">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
         <v>20</v>
       </c>
-      <c r="C160" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160">
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166">
         <v>64</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E166" t="s">
         <v>23</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H166" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>139</v>
+      </c>
+      <c r="C167" t="s">
+        <v>140</v>
+      </c>
+      <c r="E167" t="s">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s">
+        <v>141</v>
+      </c>
+      <c r="H167" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/LogTool/docs/log 테이블 정의.xlsx
+++ b/LogTool/docs/log 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\LogTool\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C74CC97-6763-442B-B96E-25D2B46A3F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0896FD8-C5BB-4950-AAD1-50C228EF536C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23D8E506-1E96-4E16-8EB2-520849076C29}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" xr2:uid="{23D8E506-1E96-4E16-8EB2-520849076C29}"/>
   </bookViews>
   <sheets>
     <sheet name="DW log 테이블 정의" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="146">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,6 +612,10 @@
   </si>
   <si>
     <t>UQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 판매 로그 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3EB989-DE02-4BC3-8379-51E8B5CCB289}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2582,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB636427-7694-40A8-9DEE-B78030DA9E66}">
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A130" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4876,7 +4880,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="3" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
